--- a/Jute Issue Format.xlsx
+++ b/Jute Issue Format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7C09A6-5257-4EEF-BA6E-A7BF949CA287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372B7082-BA79-4193-8023-ADD8A4754098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{69C4E769-1187-4446-8A56-310AABCB2CA5}"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="23040" windowHeight="12948" xr2:uid="{69C4E769-1187-4446-8A56-310AABCB2CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
   <dimension ref="A1:M865"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Jute Issue Format.xlsx
+++ b/Jute Issue Format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372B7082-BA79-4193-8023-ADD8A4754098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7C398F-7B99-40A2-9985-44EDFEE0E0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="23040" windowHeight="12948" xr2:uid="{69C4E769-1187-4446-8A56-310AABCB2CA5}"/>
+    <workbookView xWindow="384" yWindow="180" windowWidth="12060" windowHeight="12780" xr2:uid="{69C4E769-1187-4446-8A56-310AABCB2CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
   <dimension ref="A1:M865"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
